--- a/Assets/Project functions.xlsx
+++ b/Assets/Project functions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\GitHub\other\Kingmaker-project\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5153C56F-9515-4D40-AACA-0600D77AF2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A32E71E-B613-4194-B624-A087F8037059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{69C72D40-A374-4E7F-BECB-AE972D44CFE7}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3090,20 +3079,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE1297E-6689-44DA-9D91-96A873FD4BBE}">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="143.7109375" customWidth="1"/>
+    <col min="1" max="1" width="143.7265625" customWidth="1"/>
     <col min="2" max="2" width="93" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="44.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3124,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3154,7 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3195,7 +3184,7 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3227,7 +3216,7 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3246,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -3287,7 +3276,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -3317,7 +3306,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3347,7 +3336,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -3377,7 +3366,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -3407,7 +3396,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -3437,7 +3426,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -3467,7 +3456,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -3497,7 +3486,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -3527,7 +3516,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -3557,7 +3546,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -3587,7 +3576,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -3617,7 +3606,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -3647,7 +3636,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3677,7 +3666,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -3707,7 +3696,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -3737,7 +3726,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -3767,7 +3756,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
@@ -3797,7 +3786,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -3827,7 +3816,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -3857,7 +3846,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -3887,7 +3876,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -3917,7 +3906,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -3947,7 +3936,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3977,7 +3966,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>69</v>
       </c>
@@ -4007,7 +3996,7 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>74</v>
       </c>
@@ -4037,7 +4026,7 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
@@ -4067,7 +4056,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
@@ -4097,7 +4086,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>80</v>
       </c>
@@ -4127,7 +4116,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
@@ -4157,7 +4146,7 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -4187,7 +4176,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>86</v>
       </c>
@@ -4219,7 +4208,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
@@ -4251,7 +4240,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
@@ -4281,7 +4270,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
@@ -4311,7 +4300,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>94</v>
       </c>
@@ -4341,7 +4330,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4363,7 +4352,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4385,7 +4374,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4407,7 +4396,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4429,7 +4418,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4451,7 +4440,7 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4473,7 +4462,7 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4495,7 +4484,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4517,7 +4506,7 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4539,7 +4528,7 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4561,7 +4550,7 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4583,7 +4572,7 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4605,7 +4594,7 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4627,7 +4616,7 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4649,7 +4638,7 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4671,7 +4660,7 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4693,7 +4682,7 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4715,7 +4704,7 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4737,7 +4726,7 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4759,7 +4748,7 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4781,7 +4770,7 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4803,7 +4792,7 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4825,7 +4814,7 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4847,7 +4836,7 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4869,7 +4858,7 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4891,7 +4880,7 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4913,7 +4902,7 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4935,7 +4924,7 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4957,7 +4946,7 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4979,7 +4968,7 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -5001,7 +4990,7 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5023,7 +5012,7 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -5045,7 +5034,7 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -5067,7 +5056,7 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -5089,7 +5078,7 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -5111,7 +5100,7 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5133,7 +5122,7 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5155,7 +5144,7 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -5177,7 +5166,7 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5199,7 +5188,7 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5221,7 +5210,7 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5243,7 +5232,7 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5265,7 +5254,7 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -5287,7 +5276,7 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -5309,7 +5298,7 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5331,7 +5320,7 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
